--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1554155.688215943</v>
+        <v>1659094.918391307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10409301.94270919</v>
+        <v>10425619.38976982</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>114.6209363458839</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>52.83391759428201</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>3.016257466625298</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>236.9823652749856</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>180.0582075170357</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.44059585273897</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>80.23930645615819</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.0592079660174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>387.7207496111311</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8.751194497887145</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.87956703897748</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>62.14443843305253</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>151.8518831495024</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.0998442038081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.22475183604979</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V37" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.92847288552852</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>141.501781020667</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2321.861397344925</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2321.861397344925</v>
       </c>
       <c r="V2" t="n">
-        <v>2702.439335264748</v>
+        <v>1990.798510001355</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.670679994633</v>
+        <v>1990.798510001355</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.1175411917735</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="C4" t="n">
-        <v>682.1813582638666</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D4" t="n">
-        <v>532.0647188515309</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E4" t="n">
-        <v>384.1516252691378</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>237.2616777712274</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>69.55884114594636</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>69.55884114594636</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>977.4627648887046</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335304</v>
+        <v>722.7782766828177</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335304</v>
+        <v>722.7782766828177</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.910120335304</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.1175411917735</v>
+        <v>494.7887257848004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1454.537269016652</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1096.271570409902</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>710.4833178116573</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>299.4974130220498</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1841.137109080774</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1352.031492328577</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1739.316620925522</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2071.387056101684</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2318.569789933981</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>132.296591069173</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.258169761531</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635132</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.1078027362229</v>
+        <v>281.0354892056668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1638.360256348809</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1269.397739408397</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>911.1320408016466</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>911.1320408016466</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>500.146136012039</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.967338392416</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
         <v>624.6477645191717</v>
@@ -4951,25 +4953,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1898.123268251142</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1898.123268251142</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1898.123268251142</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658018</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="V10" t="n">
-        <v>1642.755772624632</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="W10" t="n">
-        <v>1353.338602587671</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X10" t="n">
-        <v>1125.349051689654</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5029,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
@@ -5282,46 +5284,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5507,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,10 +5533,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>944.1833428807391</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807391</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2951.54259528685</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>2782.606412358944</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>2632.489772946608</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>2484.576679364215</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>4126.074848401485</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>3871.390360195598</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>3581.973190158637</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>3353.98363926062</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>3133.19106011709</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309226</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>3445.398957336243</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7178,7 +7180,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7193,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>613.6374994204294</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>465.7244058380363</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>318.8344583401259</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.199413378161</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>129.7511347056864</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>66.73277020259238</v>
       </c>
     </row>
     <row r="14">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.60981118522906</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>147.359901516045</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>60.33736343303701</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.02235727160183</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911685.1623608844</v>
+        <v>920003.8608623835</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911685.1623608844</v>
+        <v>920003.8608623835</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691791</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117837</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
@@ -26332,28 +26334,28 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985043</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810782</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810796</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26433,7 +26435,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26442,22 +26444,22 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-991525.7710053095</v>
+        <v>-810738.6792960833</v>
       </c>
       <c r="C6" t="n">
-        <v>337218.9747222834</v>
+        <v>304013.1042798368</v>
       </c>
       <c r="D6" t="n">
-        <v>337218.9747222836</v>
+        <v>144591.8342819454</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048488</v>
+        <v>88773.09781048498</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.5596178402</v>
+        <v>414185.5596178403</v>
       </c>
       <c r="G6" t="n">
         <v>414185.5596178403</v>
@@ -26540,16 +26542,16 @@
         <v>414185.5596178402</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178402</v>
+        <v>414185.5596178403</v>
       </c>
       <c r="J6" t="n">
-        <v>196654.3572205628</v>
+        <v>246580.3818078575</v>
       </c>
       <c r="K6" t="n">
         <v>414185.5596178403</v>
       </c>
       <c r="L6" t="n">
-        <v>414185.5596178408</v>
+        <v>365891.5896096497</v>
       </c>
       <c r="M6" t="n">
         <v>329130.5316823283</v>
@@ -26558,10 +26560,10 @@
         <v>414185.5596178403</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178402</v>
+        <v>414185.5596178403</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178403</v>
+        <v>414185.5596178399</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>92.03724863434988</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>274.9183408758529</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.3361629432128</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>49.24478884621504</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>231.4894952559183</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>344.7973428033146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.55728874774236</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.52544538607737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>23.2009760423224</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>319.0010639722478</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>60.05258563106985</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>189.9932048907755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>552.0015769888928</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32476,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L27" t="n">
-        <v>579.5299594447137</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>456.5952253539618</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0195168876591</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366852</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>476.0648089385468</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>246.231857036541</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>418.0271695745625</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L27" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>265.4651371077849</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533519</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5104291586726</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659094.918391307</v>
+        <v>1654999.276886542</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>294.9643595219384</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>114.6209363458839</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="U4" t="n">
-        <v>236.9823652749856</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>180.0582075170357</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.4924059159513</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.23930645615819</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7207496111311</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4.443625914097415</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.87956703897748</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.15381658332875</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.22475183604979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.44001103519365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>222.8161206669567</v>
+        <v>74.20064764874485</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>20.92847288552852</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.501781020667</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>760.1764888545181</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>760.1764888545181</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>349.1905840649105</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2321.861397344925</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2321.861397344925</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1990.798510001355</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1990.798510001355</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1617.332751740275</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.332751740275</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.7887257848004</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U4" t="n">
-        <v>977.4627648887046</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V4" t="n">
-        <v>722.7782766828177</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>722.7782766828177</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>494.7887257848004</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.7887257848004</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1454.537269016652</v>
+        <v>1407.319888150871</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.537269016652</v>
+        <v>1038.35737121046</v>
       </c>
       <c r="D5" t="n">
-        <v>1096.271570409902</v>
+        <v>680.0916726037092</v>
       </c>
       <c r="E5" t="n">
-        <v>710.4833178116573</v>
+        <v>294.3034200054649</v>
       </c>
       <c r="F5" t="n">
-        <v>299.4974130220498</v>
+        <v>287.3579192562615</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>275.6935730209544</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4579,40 +4579,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056586</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056586</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.137109080774</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.852508549538</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328577</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101684</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.569789933981</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.0354892056668</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>281.0354892056668</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>281.0354892056668</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>281.0354892056668</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>281.0354892056668</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>281.0354892056668</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>132.296591069173</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485143</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426274</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056668</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056668</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056668</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.360256348809</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1269.397739408397</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>911.1320408016466</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>911.1320408016466</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>500.146136012039</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388742</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.96009641293</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,16 +4886,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1898.123268251142</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1898.123268251142</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1898.123268251142</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1609.020401376785</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1609.020401376785</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1319.603231339825</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,16 +6955,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3210.485548300424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336243</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
         <v>408.925855915485</v>
@@ -7086,61 +7086,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.394291958027</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7259,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>114.9565346495158</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>763.7541388327652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>613.6374994204294</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>465.7244058380363</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>318.8344583401259</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363237</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.7511347056864</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-5.19977698876701e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.9838267404992</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>4.845153664064696</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>63.36835372228745</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>60.33736343303701</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>24.02235727160183</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896400.4751691791</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756559</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26453,13 +26453,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810738.6792960833</v>
+        <v>-810738.6792960826</v>
       </c>
       <c r="C6" t="n">
-        <v>304013.1042798368</v>
+        <v>304013.104279837</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.8342819454</v>
+        <v>144591.8342819452</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048498</v>
+        <v>88425.71855612776</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634831</v>
       </c>
       <c r="G6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="H6" t="n">
-        <v>414185.5596178402</v>
+        <v>413838.1803634831</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="J6" t="n">
-        <v>246580.3818078575</v>
+        <v>246233.0025535007</v>
       </c>
       <c r="K6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634831</v>
       </c>
       <c r="L6" t="n">
-        <v>365891.5896096497</v>
+        <v>365544.2103552924</v>
       </c>
       <c r="M6" t="n">
-        <v>329130.5316823283</v>
+        <v>328783.1524279712</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634831</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178399</v>
+        <v>413838.1803634831</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>116.5833432510156</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>92.03724863434988</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.7679478717839</v>
       </c>
       <c r="U4" t="n">
-        <v>49.24478884621504</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.4894952559183</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>144.5261466464541</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>24.55728874774236</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.2009760423224</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>344.7973428033156</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>60.05258563106985</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291977</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>246.231857036541</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>134.2025531565913</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654999.276886542</v>
+        <v>1656759.807189328</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>294.9643595219384</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>102.2610062414949</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>50.98074812542808</v>
+        <v>186.7047617036397</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>149.9704787611666</v>
       </c>
       <c r="H5" t="n">
-        <v>156.4924059159513</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542792</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>4.443625914097415</v>
+        <v>287.7971664995892</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187906</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>50.06209150957788</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>40.15381658332875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988132</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>212.5602966632236</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>52.54490042791116</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695889</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>214.0780236353782</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206859</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>8.168913835721209</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>79.05856366754516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301539</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>74.20064764874485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849271</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1118.442187461269</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1118.442187461269</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>760.1764888545181</v>
+        <v>173.1505792509933</v>
       </c>
       <c r="E2" t="n">
-        <v>760.1764888545181</v>
+        <v>173.1505792509933</v>
       </c>
       <c r="F2" t="n">
-        <v>349.1905840649105</v>
+        <v>166.2050785017898</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>154.5407322664828</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.04202752539</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1584.950414897297</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="U4" t="n">
-        <v>1584.950414897297</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4546,52 +4546,52 @@
         <v>1407.319888150871</v>
       </c>
       <c r="C5" t="n">
-        <v>1038.35737121046</v>
+        <v>1038.357371210459</v>
       </c>
       <c r="D5" t="n">
-        <v>680.0916726037092</v>
+        <v>680.0916726037087</v>
       </c>
       <c r="E5" t="n">
-        <v>294.3034200054649</v>
+        <v>680.0916726037087</v>
       </c>
       <c r="F5" t="n">
-        <v>287.3579192562615</v>
+        <v>269.1057678141012</v>
       </c>
       <c r="G5" t="n">
-        <v>275.6935730209544</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926625</v>
@@ -4600,16 +4600,16 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="Y5" t="n">
         <v>1793.919728214993</v>
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>815.1145481251086</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.318417769983</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406473</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168652</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756269</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468478</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.09217158916</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876711</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>762.5477693179108</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273919</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.400878868273</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273917</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192517</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,61 +6123,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854707</v>
@@ -6186,13 +6186,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6487,7 +6487,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370362</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-5.19977698876701e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>117.18472958905</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9838267404992</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>4.845153664064696</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>166.0397529241836</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409393054</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>72.44497470121277</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>217.5407415533159</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>88.18825743108268</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194086</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
@@ -26355,7 +26355,7 @@
         <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073563</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099819</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756559</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26478,19 +26478,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810738.6792960826</v>
+        <v>-810738.6792960828</v>
       </c>
       <c r="C6" t="n">
-        <v>304013.104279837</v>
+        <v>304013.1042798372</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.8342819452</v>
+        <v>144591.834281945</v>
       </c>
       <c r="E6" t="n">
-        <v>88425.71855612776</v>
+        <v>88738.35988504827</v>
       </c>
       <c r="F6" t="n">
-        <v>413838.1803634831</v>
+        <v>414150.8216924047</v>
       </c>
       <c r="G6" t="n">
-        <v>413838.1803634832</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="H6" t="n">
-        <v>413838.1803634831</v>
+        <v>414150.8216924047</v>
       </c>
       <c r="I6" t="n">
-        <v>413838.1803634833</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="J6" t="n">
-        <v>246233.0025535007</v>
+        <v>246545.6438824225</v>
       </c>
       <c r="K6" t="n">
-        <v>413838.1803634831</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="L6" t="n">
-        <v>365544.2103552924</v>
+        <v>365856.8516842136</v>
       </c>
       <c r="M6" t="n">
-        <v>328783.1524279712</v>
+        <v>329095.7937568922</v>
       </c>
       <c r="N6" t="n">
-        <v>413838.1803634832</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="O6" t="n">
-        <v>413838.1803634831</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="P6" t="n">
-        <v>413838.1803634831</v>
+        <v>414150.8216924047</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483766</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000378</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>116.5833432510156</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>198.7575463209105</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.7679478717839</v>
+        <v>34.04393429357228</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>261.5772240117874</v>
       </c>
       <c r="H5" t="n">
-        <v>144.5261466464541</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>344.7973428033156</v>
+        <v>61.44380221782382</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200283</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437249</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32636,31 +32636,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32873,31 +32873,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>522.0158803980278</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.403420436695</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992804</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
